--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1055589.4616235</v>
+        <v>-1058138.118809521</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28.95911863073201</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>63.42545656316845</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>116.653257462963</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>105.6856817895508</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>142.6392466435883</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>155.4327576745226</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>70.48992652775087</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.43805308696707</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>304.8949957201353</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>248.8458838820185</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0188672334559</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>64.79461995032939</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695426</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>258.0279804307052</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004297</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182154</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>256.0341711178218</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>44.30292280757602</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>106.3434154283424</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.570729811036546</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>212.4287627768739</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>60.6471314173121</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487365</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179171</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>157.2118128397229</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703265</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>164.260746886978</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036685</v>
+        <v>151.6755878036686</v>
       </c>
       <c r="D34" t="n">
-        <v>56.17220388510775</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>130.8627293516099</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279719</v>
+        <v>55.15928926146966</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973095</v>
+        <v>149.9529049973096</v>
       </c>
       <c r="H34" t="n">
         <v>124.7234795512646</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360622</v>
+        <v>65.69460302360628</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516237</v>
+        <v>50.80401341516244</v>
       </c>
       <c r="S34" t="n">
         <v>165.4550527066853</v>
@@ -3241,7 +3241,7 @@
         <v>201.834217032329</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942848</v>
+        <v>270.6132410942849</v>
       </c>
       <c r="V34" t="n">
         <v>236.5664100288687</v>
@@ -3250,7 +3250,7 @@
         <v>270.9517650416317</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940778</v>
+        <v>210.1384220940779</v>
       </c>
       <c r="Y34" t="n">
         <v>203.0134200571355</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261711</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.36381994936</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.401303008948</v>
+        <v>916.6290841382836</v>
       </c>
       <c r="D2" t="n">
-        <v>779.1356044021977</v>
+        <v>558.3633855315329</v>
       </c>
       <c r="E2" t="n">
-        <v>393.3473518039536</v>
+        <v>172.5751329332888</v>
       </c>
       <c r="F2" t="n">
-        <v>393.3473518039536</v>
+        <v>172.5751329332888</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>172.5751329332888</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.963660013482</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
         <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978978</v>
@@ -4419,40 +4419,40 @@
         <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
         <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441808</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139007</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760402</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
         <v>1849.684251935977</v>
@@ -4513,25 +4513,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.093718466959</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1273.262145272047</v>
+        <v>879.9099329995256</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.262145272047</v>
+        <v>651.9203821015083</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1418.660964416652</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3058.312367606444</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>3058.312367606444</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2705.54371233633</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2332.07795407525</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416652</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.49552942792</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1544.49552942792</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W7" t="n">
-        <v>1255.078359390959</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X7" t="n">
-        <v>1027.088808492942</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.2962293494114</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1795.666214589423</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C8" t="n">
-        <v>1426.703697649011</v>
+        <v>1242.542113288978</v>
       </c>
       <c r="D8" t="n">
-        <v>1068.437999042261</v>
+        <v>1242.542113288978</v>
       </c>
       <c r="E8" t="n">
-        <v>1068.437999042261</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>657.4520942526531</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,16 +4814,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y8" t="n">
-        <v>2182.266054653544</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>880.8839692864693</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>711.9477863585624</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1670.15955285438</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1381.056685980024</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1126.372197774137</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1126.372197774137</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>1126.372197774137</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>880.8839692864693</v>
       </c>
     </row>
     <row r="11">
@@ -5036,40 +5036,40 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616109</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835327</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.527634571197</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.614540988804</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487566</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.428221820187</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820187</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885209</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741679</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.580456911443</v>
+        <v>983.3556038098238</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835361</v>
+        <v>814.4194208819169</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695812</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>516.3896878871881</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041576</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.695539989117</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.01105178323</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.01105178323</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.021500885213</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.228921741683</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5492,43 +5492,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,13 +5589,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>996.5276398439756</v>
+        <v>808.8888553856868</v>
       </c>
       <c r="C19" t="n">
-        <v>827.5914569160688</v>
+        <v>639.95267245778</v>
       </c>
       <c r="D19" t="n">
-        <v>677.474817503733</v>
+        <v>489.8360330454442</v>
       </c>
       <c r="E19" t="n">
-        <v>529.5617239213399</v>
+        <v>489.8360330454442</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>342.9460855475338</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="Y19" t="n">
-        <v>1178.176104674215</v>
+        <v>990.5373202159266</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>961.444616615148</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>792.508433687241</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>642.3917942749052</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>494.4787006925121</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>1143.093081445388</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6081,13 +6081,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327647</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048579</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925222</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101292</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101292</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>296.7882229101292</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>155.0763917523275</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>945.4026036630045</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,16 +6300,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188007</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908938</v>
@@ -6376,19 +6376,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511393</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2105.308438285949</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925705</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490404</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192457</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400711</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121642</v>
+        <v>402.724593490894</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121642</v>
+        <v>402.724593490894</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121642</v>
+        <v>402.724593490894</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121642</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713841</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703108</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539603</v>
+        <v>778.7344347539597</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703058103</v>
+        <v>625.5267703058096</v>
       </c>
       <c r="D34" t="n">
-        <v>568.787170421863</v>
+        <v>625.5267703058096</v>
       </c>
       <c r="E34" t="n">
-        <v>568.787170421863</v>
+        <v>493.3421952031733</v>
       </c>
       <c r="F34" t="n">
-        <v>437.6257414037096</v>
+        <v>437.625741403709</v>
       </c>
       <c r="G34" t="n">
-        <v>286.1581605983464</v>
+        <v>286.1581605983465</v>
       </c>
       <c r="H34" t="n">
         <v>160.1748479203014</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403054</v>
+        <v>189.4682024403053</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278537</v>
+        <v>466.5729859278536</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658036</v>
+        <v>872.3871010658031</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758848</v>
+        <v>1309.812324758847</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380866</v>
+        <v>1742.637717380865</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051861</v>
+        <v>2127.58251905186</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587429</v>
+        <v>2435.673495587428</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276338</v>
+        <v>2570.287251276337</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008497</v>
+        <v>2518.970066008496</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143159</v>
+        <v>2351.843750143158</v>
       </c>
       <c r="T34" t="n">
         <v>2147.970803645856</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469811</v>
+        <v>1874.62409546981</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743681</v>
+        <v>1635.66812574368</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186478</v>
+        <v>1361.979474186476</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768217</v>
+        <v>1149.718441768216</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.6543811044431</v>
+        <v>944.6543811044426</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,55 +7072,55 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319312</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656804</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7546,22 +7546,22 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384022</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,16 +7588,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150024</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>381.9626070227214</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>231.182307824152</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>169.869740873628</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>112.898971562544</v>
       </c>
     </row>
     <row r="5">
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>28.15649395853897</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
     </row>
     <row r="14">
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>32.89260457060004</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>30.15030327142239</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>59.18072286392641</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>135.8503182118947</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39.70888054695413</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>20.61870490125342</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405076</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194252</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>60.19363748756538</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>76.87203583814529</v>
+        <v>133.0442397232531</v>
       </c>
       <c r="E34" t="n">
-        <v>130.8627293516099</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>74.69052546650234</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-12</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1222308.834870243</v>
+        <v>1222308.834870244</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1222308.834870244</v>
+        <v>1222308.834870243</v>
       </c>
     </row>
     <row r="9">
@@ -26317,7 +26317,7 @@
         <v>205260.4424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
         <v>201786.6499225016</v>
@@ -26335,7 +26335,7 @@
         <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225016</v>
@@ -26344,7 +26344,7 @@
         <v>204014.0338749323</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596745</v>
+        <v>12456.9866359674</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317604</v>
+        <v>92025.75929317607</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>12210.17896214071</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26436,28 +26436,28 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>17510.63193648128</v>
+        <v>17510.63193648126</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491167</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491163</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278390.315765666</v>
+        <v>-1278737.934695472</v>
       </c>
       <c r="C6" t="n">
-        <v>5752.546951507815</v>
+        <v>5752.546951507975</v>
       </c>
       <c r="D6" t="n">
-        <v>5752.546951508019</v>
+        <v>5752.546951508091</v>
       </c>
       <c r="E6" t="n">
-        <v>-237135.2618905785</v>
+        <v>-237169.9998160144</v>
       </c>
       <c r="F6" t="n">
-        <v>88277.19991677612</v>
+        <v>88242.46199134059</v>
       </c>
       <c r="G6" t="n">
-        <v>88277.19991677631</v>
+        <v>88242.46199134047</v>
       </c>
       <c r="H6" t="n">
-        <v>88277.19991677628</v>
+        <v>88242.46199134059</v>
       </c>
       <c r="I6" t="n">
-        <v>88277.19991677634</v>
+        <v>88242.46199134065</v>
       </c>
       <c r="J6" t="n">
-        <v>-129254.0024805011</v>
+        <v>-129288.7404059368</v>
       </c>
       <c r="K6" t="n">
-        <v>88277.19991677631</v>
+        <v>88242.46199134062</v>
       </c>
       <c r="L6" t="n">
-        <v>71614.8274667025</v>
+        <v>71602.36338079123</v>
       </c>
       <c r="M6" t="n">
-        <v>-10307.2121259322</v>
+        <v>-10307.21212593207</v>
       </c>
       <c r="N6" t="n">
-        <v>81718.54716724393</v>
+        <v>81718.54716724396</v>
       </c>
       <c r="O6" t="n">
-        <v>81718.54716724393</v>
+        <v>81718.54716724399</v>
       </c>
       <c r="P6" t="n">
-        <v>81718.5471672439</v>
+        <v>81718.54716724387</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080441</v>
+        <v>8.713414197080432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483752</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>222.6336451274193</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>95.56241428437937</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>215.721911677862</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.6995902368609</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>77.03537435212644</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>162.0758417714349</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>42.59660578475645</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>154.7543293258398</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.079648536186141e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495931</v>
+        <v>15.57123329495925</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>471.1883883160949</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791267</v>
+        <v>96.61771655791262</v>
       </c>
       <c r="K34" t="n">
         <v>279.9038217045942</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140908</v>
+        <v>409.9132476140907</v>
       </c>
       <c r="M34" t="n">
         <v>441.8436602960044</v>
@@ -37242,10 +37242,10 @@
         <v>388.8331330010047</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015843</v>
+        <v>311.2030066015842</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948577</v>
+        <v>135.9734905948576</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
